--- a/Al Sweigart/styled.xlsx
+++ b/Al Sweigart/styled.xlsx
@@ -1,3 +1,82 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>Здравствуй, мир!</t>
+  </si>
+  <si>
+    <t>Пока!</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <color rgb="FF000000"/>
+      <sz val="24"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +359,45 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="n"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>